--- a/hh and ind elect price composition.xlsx
+++ b/hh and ind elect price composition.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bruegelbxl.sharepoint.com/sites/Research/Projects/2023-09 Industrial repercussions of the energy crisis/Code/electricity tariffs app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_D9A59A37736571029937F2A9800157FEA4797761" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C41EFE2-4C59-4B00-BF13-3F675CFA3A58}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_D9A59A37736571029937F2A9800157FEA4797761" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89FEAC7F-144A-4CD2-83EC-D0CC504D5AC9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$829</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -552,15 +555,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J829"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A610" workbookViewId="0">
-      <selection activeCell="D627" sqref="D627"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -592,7 +597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -624,7 +629,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -656,7 +661,7 @@
         <v>2.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -688,7 +693,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -720,7 +725,7 @@
         <v>0.1467</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -752,7 +757,7 @@
         <v>0.1472</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>13</v>
       </c>
@@ -784,7 +789,7 @@
         <v>0.15429999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>18</v>
       </c>
@@ -810,7 +815,7 @@
         <v>-1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>19</v>
       </c>
@@ -836,7 +841,7 @@
         <v>-3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>22</v>
       </c>
@@ -862,7 +867,7 @@
         <v>-1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>26</v>
       </c>
@@ -888,7 +893,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>27</v>
       </c>
@@ -914,7 +919,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30</v>
       </c>
@@ -940,7 +945,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>34</v>
       </c>
@@ -966,7 +971,7 @@
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>35</v>
       </c>
@@ -992,7 +997,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>38</v>
       </c>
@@ -1018,7 +1023,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42</v>
       </c>
@@ -1044,7 +1049,7 @@
         <v>6.6500000000000004E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43</v>
       </c>
@@ -1070,7 +1075,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>46</v>
       </c>
@@ -1096,7 +1101,7 @@
         <v>4.5199999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>50</v>
       </c>
@@ -1122,7 +1127,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>51</v>
       </c>
@@ -1148,7 +1153,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>54</v>
       </c>
@@ -1174,7 +1179,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>58</v>
       </c>
@@ -1200,7 +1205,7 @@
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>59</v>
       </c>
@@ -1226,7 +1231,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>62</v>
       </c>
@@ -1252,7 +1257,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>66</v>
       </c>
@@ -1278,7 +1283,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>67</v>
       </c>
@@ -1304,7 +1309,7 @@
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>70</v>
       </c>
@@ -1330,7 +1335,7 @@
         <v>2.9600000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>74</v>
       </c>
@@ -1362,7 +1367,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>75</v>
       </c>
@@ -1394,7 +1399,7 @@
         <v>2.4199999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>78</v>
       </c>
@@ -1426,7 +1431,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>83</v>
       </c>
@@ -1458,7 +1463,7 @@
         <v>0.1492</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>84</v>
       </c>
@@ -1490,7 +1495,7 @@
         <v>0.1532</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>87</v>
       </c>
@@ -1522,7 +1527,7 @@
         <v>0.16320000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>92</v>
       </c>
@@ -1548,7 +1553,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>93</v>
       </c>
@@ -1574,7 +1579,7 @@
         <v>-2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>96</v>
       </c>
@@ -1600,7 +1605,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>100</v>
       </c>
@@ -1626,7 +1631,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>101</v>
       </c>
@@ -1652,7 +1657,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>104</v>
       </c>
@@ -1678,7 +1683,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>108</v>
       </c>
@@ -1704,7 +1709,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>109</v>
       </c>
@@ -1730,7 +1735,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>112</v>
       </c>
@@ -1756,7 +1761,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>116</v>
       </c>
@@ -1782,7 +1787,7 @@
         <v>6.9900000000000004E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>117</v>
       </c>
@@ -1808,7 +1813,7 @@
         <v>5.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>120</v>
       </c>
@@ -1834,7 +1839,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>124</v>
       </c>
@@ -1860,7 +1865,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>125</v>
       </c>
@@ -1886,7 +1891,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>128</v>
       </c>
@@ -1912,7 +1917,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>132</v>
       </c>
@@ -1938,7 +1943,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>133</v>
       </c>
@@ -1964,7 +1969,7 @@
         <v>1.09E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>136</v>
       </c>
@@ -1990,7 +1995,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>140</v>
       </c>
@@ -2016,7 +2021,7 @@
         <v>4.1300000000000003E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>141</v>
       </c>
@@ -2042,7 +2047,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>144</v>
       </c>
@@ -2893,7 +2898,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>255</v>
       </c>
@@ -2910,7 +2915,7 @@
         <v>0.1159</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>256</v>
       </c>
@@ -2927,7 +2932,7 @@
         <v>0.1211</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>259</v>
       </c>
@@ -2944,7 +2949,7 @@
         <v>0.11459999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>262</v>
       </c>
@@ -2976,7 +2981,7 @@
         <v>3.6299999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>263</v>
       </c>
@@ -3008,7 +3013,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>266</v>
       </c>
@@ -3040,7 +3045,7 @@
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>271</v>
       </c>
@@ -3072,7 +3077,7 @@
         <v>0.26829999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>272</v>
       </c>
@@ -3104,7 +3109,7 @@
         <v>0.2596</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>275</v>
       </c>
@@ -3136,7 +3141,7 @@
         <v>0.2331</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>280</v>
       </c>
@@ -3156,7 +3161,7 @@
         <v>-0.1203</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>281</v>
       </c>
@@ -3176,7 +3181,7 @@
         <v>-0.1255</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>284</v>
       </c>
@@ -3196,7 +3201,7 @@
         <v>-0.11899999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>289</v>
       </c>
@@ -3216,7 +3221,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>290</v>
       </c>
@@ -3236,7 +3241,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>293</v>
       </c>
@@ -3256,7 +3261,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>298</v>
       </c>
@@ -3288,7 +3293,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>299</v>
       </c>
@@ -3320,7 +3325,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>302</v>
       </c>
@@ -3352,7 +3357,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>307</v>
       </c>
@@ -3384,7 +3389,7 @@
         <v>-7.4800000000000005E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>308</v>
       </c>
@@ -3416,7 +3421,7 @@
         <v>-8.5500000000000007E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>311</v>
       </c>
@@ -3448,7 +3453,7 @@
         <v>-8.5699999999999998E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>325</v>
       </c>
@@ -3468,7 +3473,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>326</v>
       </c>
@@ -3488,7 +3493,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>329</v>
       </c>
@@ -3508,7 +3513,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>334</v>
       </c>
@@ -3540,7 +3545,7 @@
         <v>3.8300000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>335</v>
       </c>
@@ -3572,7 +3577,7 @@
         <v>3.27E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>338</v>
       </c>
@@ -3604,7 +3609,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>343</v>
       </c>
@@ -3636,7 +3641,7 @@
         <v>5.9299999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>344</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v>2.47E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>347</v>
       </c>
@@ -3700,7 +3705,7 @@
         <v>4.2799999999999998E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>352</v>
       </c>
@@ -3732,7 +3737,7 @@
         <v>0.15490000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>353</v>
       </c>
@@ -3764,7 +3769,7 @@
         <v>0.1366</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>356</v>
       </c>
@@ -3796,7 +3801,7 @@
         <v>0.14249999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>361</v>
       </c>
@@ -3813,7 +3818,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>362</v>
       </c>
@@ -3830,7 +3835,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>365</v>
       </c>
@@ -3847,7 +3852,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>386</v>
       </c>
@@ -3879,7 +3884,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>387</v>
       </c>
@@ -3911,7 +3916,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>390</v>
       </c>
@@ -3943,7 +3948,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>395</v>
       </c>
@@ -3975,7 +3980,7 @@
         <v>5.6800000000000003E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>396</v>
       </c>
@@ -4007,7 +4012,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>399</v>
       </c>
@@ -4039,7 +4044,7 @@
         <v>4.4600000000000001E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>413</v>
       </c>
@@ -4071,7 +4076,7 @@
         <v>8.5000000000000006E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>414</v>
       </c>
@@ -4103,7 +4108,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>417</v>
       </c>
@@ -4135,7 +4140,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>422</v>
       </c>
@@ -4167,7 +4172,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>423</v>
       </c>
@@ -4199,7 +4204,7 @@
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>426</v>
       </c>
@@ -4231,7 +4236,7 @@
         <v>3.9899999999999998E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>438</v>
       </c>
@@ -4263,7 +4268,7 @@
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>439</v>
       </c>
@@ -4295,7 +4300,7 @@
         <v>2.24E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>442</v>
       </c>
@@ -4327,7 +4332,7 @@
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>446</v>
       </c>
@@ -4359,7 +4364,7 @@
         <v>0.19470000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>447</v>
       </c>
@@ -4391,7 +4396,7 @@
         <v>0.16350000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>450</v>
       </c>
@@ -4423,7 +4428,7 @@
         <v>0.19420000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>477</v>
       </c>
@@ -4455,7 +4460,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>478</v>
       </c>
@@ -4487,7 +4492,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>481</v>
       </c>
@@ -4519,7 +4524,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>492</v>
       </c>
@@ -4551,7 +4556,7 @@
         <v>8.7400000000000005E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>493</v>
       </c>
@@ -4583,7 +4588,7 @@
         <v>7.5700000000000003E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>496</v>
       </c>
@@ -4615,7 +4620,7 @@
         <v>8.1500000000000003E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>515</v>
       </c>
@@ -4647,7 +4652,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>516</v>
       </c>
@@ -4679,7 +4684,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>519</v>
       </c>
@@ -4711,7 +4716,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>530</v>
       </c>
@@ -4743,7 +4748,7 @@
         <v>8.5900000000000004E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>531</v>
       </c>
@@ -4775,7 +4780,7 @@
         <v>7.4399999999999994E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>534</v>
       </c>
@@ -4807,7 +4812,7 @@
         <v>8.0199999999999994E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>538</v>
       </c>
@@ -4839,7 +4844,7 @@
         <v>5.7700000000000001E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>539</v>
       </c>
@@ -4871,7 +4876,7 @@
         <v>3.1899999999999998E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>542</v>
       </c>
@@ -4903,7 +4908,7 @@
         <v>1.37E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>547</v>
       </c>
@@ -4935,7 +4940,7 @@
         <v>0.11459999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>548</v>
       </c>
@@ -4967,7 +4972,7 @@
         <v>0.12620000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>551</v>
       </c>
@@ -4999,7 +5004,7 @@
         <v>0.13059999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>556</v>
       </c>
@@ -5025,7 +5030,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>557</v>
       </c>
@@ -5051,7 +5056,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>560</v>
       </c>
@@ -5077,7 +5082,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>564</v>
       </c>
@@ -5103,7 +5108,7 @@
         <v>8.5000000000000006E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>565</v>
       </c>
@@ -5129,7 +5134,7 @@
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>568</v>
       </c>
@@ -5155,7 +5160,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>572</v>
       </c>
@@ -5181,7 +5186,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>573</v>
       </c>
@@ -5207,7 +5212,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>576</v>
       </c>
@@ -5233,7 +5238,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>580</v>
       </c>
@@ -5259,7 +5264,7 @@
         <v>0.1008</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>581</v>
       </c>
@@ -5285,7 +5290,7 @@
         <v>8.4500000000000006E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>584</v>
       </c>
@@ -5311,7 +5316,7 @@
         <v>8.0699999999999994E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>596</v>
       </c>
@@ -5337,7 +5342,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>597</v>
       </c>
@@ -5363,7 +5368,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>600</v>
       </c>
@@ -5389,7 +5394,7 @@
         <v>1.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>604</v>
       </c>
@@ -5415,7 +5420,7 @@
         <v>4.36E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>605</v>
       </c>
@@ -5441,7 +5446,7 @@
         <v>3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>608</v>
       </c>
@@ -5467,7 +5472,7 @@
         <v>3.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>619</v>
       </c>
@@ -5499,7 +5504,7 @@
         <v>4.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>620</v>
       </c>
@@ -5531,7 +5536,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>623</v>
       </c>
@@ -5563,7 +5568,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>628</v>
       </c>
@@ -5595,7 +5600,7 @@
         <v>0.1452</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>629</v>
       </c>
@@ -5627,7 +5632,7 @@
         <v>0.15479999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>632</v>
       </c>
@@ -5659,7 +5664,7 @@
         <v>0.14660000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>662</v>
       </c>
@@ -5691,7 +5696,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>663</v>
       </c>
@@ -5723,7 +5728,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>666</v>
       </c>
@@ -5755,7 +5760,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>678</v>
       </c>
@@ -5787,7 +5792,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>679</v>
       </c>
@@ -5819,7 +5824,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>682</v>
       </c>
@@ -5851,7 +5856,7 @@
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>703</v>
       </c>
@@ -5883,7 +5888,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>704</v>
       </c>
@@ -5915,7 +5920,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>707</v>
       </c>
@@ -5947,7 +5952,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>719</v>
       </c>
@@ -5979,7 +5984,7 @@
         <v>3.9600000000000003E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>720</v>
       </c>
@@ -6011,7 +6016,7 @@
         <v>3.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>723</v>
       </c>
@@ -6043,7 +6048,7 @@
         <v>3.4799999999999998E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>728</v>
       </c>
@@ -6075,7 +6080,7 @@
         <v>6.7799999999999999E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>729</v>
       </c>
@@ -6107,7 +6112,7 @@
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>732</v>
       </c>
@@ -6139,7 +6144,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>737</v>
       </c>
@@ -6171,7 +6176,7 @@
         <v>0.20619999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>738</v>
       </c>
@@ -6203,7 +6208,7 @@
         <v>0.18959999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>741</v>
       </c>
@@ -6235,7 +6240,7 @@
         <v>0.1908</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>746</v>
       </c>
@@ -6267,7 +6272,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>747</v>
       </c>
@@ -6299,7 +6304,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>750</v>
       </c>
@@ -6331,7 +6336,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>755</v>
       </c>
@@ -6363,7 +6368,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>756</v>
       </c>
@@ -6395,7 +6400,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>759</v>
       </c>
@@ -6427,7 +6432,7 @@
         <v>-1E-4</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>764</v>
       </c>
@@ -6459,7 +6464,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>765</v>
       </c>
@@ -6491,7 +6496,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>768</v>
       </c>
@@ -6523,7 +6528,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>773</v>
       </c>
@@ -6555,7 +6560,7 @@
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>774</v>
       </c>
@@ -6587,7 +6592,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>777</v>
       </c>
@@ -6619,7 +6624,7 @@
         <v>2.7900000000000001E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>791</v>
       </c>
@@ -6651,7 +6656,7 @@
         <v>5.3E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>792</v>
       </c>
@@ -6683,7 +6688,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>795</v>
       </c>
@@ -6715,7 +6720,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>800</v>
       </c>
@@ -6747,7 +6752,7 @@
         <v>2.7799999999999998E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>801</v>
       </c>
@@ -6779,7 +6784,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>804</v>
       </c>
@@ -6811,7 +6816,7 @@
         <v>1.84E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>809</v>
       </c>
@@ -6828,7 +6833,7 @@
         <v>0.12659999999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>810</v>
       </c>
@@ -6845,7 +6850,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>816</v>
       </c>
@@ -6877,7 +6882,7 @@
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>817</v>
       </c>
@@ -6909,7 +6914,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>825</v>
       </c>
@@ -6941,7 +6946,7 @@
         <v>0.36259999999999998</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>826</v>
       </c>
@@ -6973,7 +6978,7 @@
         <v>0.32540000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>834</v>
       </c>
@@ -7005,7 +7010,7 @@
         <v>-0.108</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>835</v>
       </c>
@@ -7037,7 +7042,7 @@
         <v>-0.1225</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>852</v>
       </c>
@@ -7063,7 +7068,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>853</v>
       </c>
@@ -7089,7 +7094,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>861</v>
       </c>
@@ -7121,7 +7126,7 @@
         <v>-6.9800000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>862</v>
       </c>
@@ -7153,7 +7158,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>879</v>
       </c>
@@ -7185,7 +7190,7 @@
         <v>1.5699999999999999E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>880</v>
       </c>
@@ -7217,7 +7222,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>888</v>
       </c>
@@ -7249,7 +7254,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>889</v>
       </c>
@@ -7281,7 +7286,7 @@
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>897</v>
       </c>
@@ -7313,7 +7318,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>898</v>
       </c>
@@ -7345,7 +7350,7 @@
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>901</v>
       </c>
@@ -7377,7 +7382,7 @@
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>905</v>
       </c>
@@ -7409,7 +7414,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>906</v>
       </c>
@@ -7441,7 +7446,7 @@
         <v>0.16450000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>909</v>
       </c>
@@ -7473,7 +7478,7 @@
         <v>0.18479999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>913</v>
       </c>
@@ -7505,7 +7510,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>914</v>
       </c>
@@ -7537,7 +7542,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>917</v>
       </c>
@@ -7569,7 +7574,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>921</v>
       </c>
@@ -7595,7 +7600,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>922</v>
       </c>
@@ -7621,7 +7626,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>925</v>
       </c>
@@ -7647,7 +7652,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>929</v>
       </c>
@@ -7673,7 +7678,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>930</v>
       </c>
@@ -7699,7 +7704,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>933</v>
       </c>
@@ -7725,7 +7730,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>937</v>
       </c>
@@ -7757,7 +7762,7 @@
         <v>6.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>938</v>
       </c>
@@ -7789,7 +7794,7 @@
         <v>5.33E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>941</v>
       </c>
@@ -7821,7 +7826,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>953</v>
       </c>
@@ -7847,7 +7852,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>954</v>
       </c>
@@ -7873,7 +7878,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>957</v>
       </c>
@@ -7899,7 +7904,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>961</v>
       </c>
@@ -7931,7 +7936,7 @@
         <v>4.19E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>962</v>
       </c>
@@ -7963,7 +7968,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>965</v>
       </c>
@@ -7995,7 +8000,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>969</v>
       </c>
@@ -8027,7 +8032,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>970</v>
       </c>
@@ -8059,7 +8064,7 @@
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>973</v>
       </c>
@@ -8091,7 +8096,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>977</v>
       </c>
@@ -8123,7 +8128,7 @@
         <v>9.7900000000000001E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>978</v>
       </c>
@@ -8155,7 +8160,7 @@
         <v>9.6299999999999997E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>981</v>
       </c>
@@ -8187,7 +8192,7 @@
         <v>0.1205</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>993</v>
       </c>
@@ -8219,7 +8224,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>994</v>
       </c>
@@ -8251,7 +8256,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>997</v>
       </c>
@@ -8283,7 +8288,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>1001</v>
       </c>
@@ -8315,7 +8320,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>1002</v>
       </c>
@@ -8347,7 +8352,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>1005</v>
       </c>
@@ -8379,7 +8384,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>1009</v>
       </c>
@@ -8411,7 +8416,7 @@
         <v>3.8199999999999998E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>1010</v>
       </c>
@@ -8443,7 +8448,7 @@
         <v>2.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>1013</v>
       </c>
@@ -8475,7 +8480,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>1033</v>
       </c>
@@ -8507,7 +8512,7 @@
         <v>2.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>1034</v>
       </c>
@@ -8539,7 +8544,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>1037</v>
       </c>
@@ -8571,7 +8576,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>1041</v>
       </c>
@@ -8603,7 +8608,7 @@
         <v>4.5600000000000002E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>1042</v>
       </c>
@@ -8635,7 +8640,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>1045</v>
       </c>
@@ -8667,7 +8672,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>1050</v>
       </c>
@@ -8699,7 +8704,7 @@
         <v>0.1943</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>1051</v>
       </c>
@@ -8731,7 +8736,7 @@
         <v>0.12520000000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>1054</v>
       </c>
@@ -8763,7 +8768,7 @@
         <v>0.13969999999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>1077</v>
       </c>
@@ -8792,7 +8797,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>1078</v>
       </c>
@@ -8821,7 +8826,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>1081</v>
       </c>
@@ -8850,7 +8855,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>1086</v>
       </c>
@@ -8882,7 +8887,7 @@
         <v>4.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>1087</v>
       </c>
@@ -8914,7 +8919,7 @@
         <v>3.4599999999999999E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>1090</v>
       </c>
@@ -8946,7 +8951,7 @@
         <v>2.7900000000000001E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>1104</v>
       </c>
@@ -8978,7 +8983,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>1105</v>
       </c>
@@ -9010,7 +9015,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>1108</v>
       </c>
@@ -9042,7 +9047,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>1113</v>
       </c>
@@ -9074,7 +9079,7 @@
         <v>3.32E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>1114</v>
       </c>
@@ -9106,7 +9111,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>1117</v>
       </c>
@@ -9138,7 +9143,7 @@
         <v>2.0899999999999998E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>1122</v>
       </c>
@@ -9170,7 +9175,7 @@
         <v>4.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>1123</v>
       </c>
@@ -9202,7 +9207,7 @@
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>1126</v>
       </c>
@@ -9234,7 +9239,7 @@
         <v>1.29E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>1131</v>
       </c>
@@ -9266,7 +9271,7 @@
         <v>0.24590000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>1132</v>
       </c>
@@ -9298,7 +9303,7 @@
         <v>0.2404</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>1135</v>
       </c>
@@ -9330,7 +9335,7 @@
         <v>0.27060000000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>1140</v>
       </c>
@@ -9362,7 +9367,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>1141</v>
       </c>
@@ -9394,7 +9399,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>1144</v>
       </c>
@@ -9426,7 +9431,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>1149</v>
       </c>
@@ -9443,7 +9448,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>1150</v>
       </c>
@@ -9460,7 +9465,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>1153</v>
       </c>
@@ -9477,7 +9482,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>1157</v>
       </c>
@@ -9503,7 +9508,7 @@
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>1158</v>
       </c>
@@ -9529,7 +9534,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>1161</v>
       </c>
@@ -9555,7 +9560,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>1165</v>
       </c>
@@ -9587,7 +9592,7 @@
         <v>8.0299999999999996E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>1166</v>
       </c>
@@ -9619,7 +9624,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>1169</v>
       </c>
@@ -9651,7 +9656,7 @@
         <v>3.3099999999999997E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>1174</v>
       </c>
@@ -9674,7 +9679,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>1175</v>
       </c>
@@ -9697,7 +9702,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>1178</v>
       </c>
@@ -9720,7 +9725,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>1182</v>
       </c>
@@ -9746,7 +9751,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>1183</v>
       </c>
@@ -9772,7 +9777,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>1186</v>
       </c>
@@ -9798,7 +9803,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>1190</v>
       </c>
@@ -9830,7 +9835,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>1191</v>
       </c>
@@ -9862,7 +9867,7 @@
         <v>3.44E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>1194</v>
       </c>
@@ -9894,7 +9899,7 @@
         <v>2.7199999999999998E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>1199</v>
       </c>
@@ -9911,7 +9916,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>1206</v>
       </c>
@@ -9943,7 +9948,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>1207</v>
       </c>
@@ -9975,7 +9980,7 @@
         <v>1.67E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>1210</v>
       </c>
@@ -10001,7 +10006,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>1215</v>
       </c>
@@ -10033,7 +10038,7 @@
         <v>0.18959999999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>1216</v>
       </c>
@@ -10065,7 +10070,7 @@
         <v>0.18909999999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>1219</v>
       </c>
@@ -10091,7 +10096,7 @@
         <v>9.98E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>1224</v>
       </c>
@@ -10123,7 +10128,7 @@
         <v>-1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>1225</v>
       </c>
@@ -10155,7 +10160,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>1228</v>
       </c>
@@ -10181,7 +10186,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>1233</v>
       </c>
@@ -10213,7 +10218,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>1234</v>
       </c>
@@ -10245,7 +10250,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>1237</v>
       </c>
@@ -10271,7 +10276,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>1249</v>
       </c>
@@ -10303,7 +10308,7 @@
         <v>6.1400000000000003E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>1250</v>
       </c>
@@ -10335,7 +10340,7 @@
         <v>6.0699999999999997E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>1253</v>
       </c>
@@ -10361,7 +10366,7 @@
         <v>3.7699999999999997E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>1265</v>
       </c>
@@ -10393,7 +10398,7 @@
         <v>0.12520000000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>1266</v>
       </c>
@@ -10425,7 +10430,7 @@
         <v>0.1196</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>1269</v>
       </c>
@@ -10451,7 +10456,7 @@
         <v>7.7899999999999997E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>1290</v>
       </c>
@@ -10483,7 +10488,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>1291</v>
       </c>
@@ -10515,7 +10520,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>1294</v>
       </c>
@@ -10541,7 +10546,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>1306</v>
       </c>
@@ -10573,7 +10578,7 @@
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>1307</v>
       </c>
@@ -10605,7 +10610,7 @@
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>1310</v>
       </c>
@@ -10631,7 +10636,7 @@
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>1315</v>
       </c>
@@ -10663,7 +10668,7 @@
         <v>5.33E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>1316</v>
       </c>
@@ -10695,7 +10700,7 @@
         <v>2.4299999999999999E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>1319</v>
       </c>
@@ -10727,7 +10732,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>1323</v>
       </c>
@@ -10759,7 +10764,7 @@
         <v>0.11849999999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>1324</v>
       </c>
@@ -10791,7 +10796,7 @@
         <v>0.13170000000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>1327</v>
       </c>
@@ -10823,7 +10828,7 @@
         <v>0.16039999999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>1331</v>
       </c>
@@ -10852,7 +10857,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>1332</v>
       </c>
@@ -10881,7 +10886,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>1335</v>
       </c>
@@ -10910,7 +10915,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>1355</v>
       </c>
@@ -10942,7 +10947,7 @@
         <v>5.4300000000000001E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>1356</v>
       </c>
@@ -10974,7 +10979,7 @@
         <v>4.4600000000000001E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>1359</v>
       </c>
@@ -11006,7 +11011,7 @@
         <v>4.5499999999999999E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>1371</v>
       </c>
@@ -11038,7 +11043,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>1372</v>
       </c>
@@ -11070,7 +11075,7 @@
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>1375</v>
       </c>
@@ -11102,7 +11107,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>1379</v>
       </c>
@@ -11134,7 +11139,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>1380</v>
       </c>
@@ -11166,7 +11171,7 @@
         <v>3.4799999999999998E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>1383</v>
       </c>
@@ -11198,7 +11203,7 @@
         <v>3.73E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>1387</v>
       </c>
@@ -11230,7 +11235,7 @@
         <v>5.3400000000000003E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>1388</v>
       </c>
@@ -11262,7 +11267,7 @@
         <v>3.6299999999999999E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>1391</v>
       </c>
@@ -11294,7 +11299,7 @@
         <v>2.0899999999999998E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>1396</v>
       </c>
@@ -11326,7 +11331,7 @@
         <v>0.19139999999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>1397</v>
       </c>
@@ -11358,7 +11363,7 @@
         <v>0.16309999999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>1400</v>
       </c>
@@ -11390,7 +11395,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>1414</v>
       </c>
@@ -11410,7 +11415,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>1415</v>
       </c>
@@ -11430,7 +11435,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>1418</v>
       </c>
@@ -11450,7 +11455,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>1423</v>
       </c>
@@ -11482,7 +11487,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>1424</v>
       </c>
@@ -11514,7 +11519,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>1427</v>
       </c>
@@ -11537,7 +11542,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>1432</v>
       </c>
@@ -11569,7 +11574,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>1433</v>
       </c>
@@ -11601,7 +11606,7 @@
         <v>4.4299999999999999E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>1436</v>
       </c>
@@ -11633,7 +11638,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>1450</v>
       </c>
@@ -11665,7 +11670,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>1451</v>
       </c>
@@ -11697,7 +11702,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>1454</v>
       </c>
@@ -11729,7 +11734,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>1459</v>
       </c>
@@ -11761,7 +11766,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>1460</v>
       </c>
@@ -11793,7 +11798,7 @@
         <v>4.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>1463</v>
       </c>
@@ -11825,7 +11830,7 @@
         <v>4.5699999999999998E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>1475</v>
       </c>
@@ -11857,7 +11862,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>1476</v>
       </c>
@@ -11889,7 +11894,7 @@
         <v>2.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>1484</v>
       </c>
@@ -11921,7 +11926,7 @@
         <v>0.1042</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>1485</v>
       </c>
@@ -11953,7 +11958,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>1493</v>
       </c>
@@ -11973,7 +11978,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>1494</v>
       </c>
@@ -11993,7 +11998,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>1518</v>
       </c>
@@ -12019,7 +12024,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>1519</v>
       </c>
@@ -12045,7 +12050,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>1534</v>
       </c>
@@ -12077,7 +12082,7 @@
         <v>2.29E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>1535</v>
       </c>
@@ -12109,7 +12114,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>1559</v>
       </c>
@@ -12141,7 +12146,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>1560</v>
       </c>
@@ -12173,7 +12178,7 @@
         <v>5.3E-3</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>1575</v>
       </c>
@@ -12205,7 +12210,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>1576</v>
       </c>
@@ -12237,7 +12242,7 @@
         <v>1.03E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>1584</v>
       </c>
@@ -12269,7 +12274,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>1585</v>
       </c>
@@ -12301,7 +12306,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>1588</v>
       </c>
@@ -12333,7 +12338,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>1593</v>
       </c>
@@ -12365,7 +12370,7 @@
         <v>0.14349999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>1594</v>
       </c>
@@ -12397,7 +12402,7 @@
         <v>0.17330000000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>1597</v>
       </c>
@@ -12429,7 +12434,7 @@
         <v>0.21510000000000001</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>1602</v>
       </c>
@@ -12461,7 +12466,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>1603</v>
       </c>
@@ -12493,7 +12498,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>1606</v>
       </c>
@@ -12525,7 +12530,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>1620</v>
       </c>
@@ -12557,7 +12562,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>1621</v>
       </c>
@@ -12589,7 +12594,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>1624</v>
       </c>
@@ -12621,7 +12626,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>1629</v>
       </c>
@@ -12653,7 +12658,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>1630</v>
       </c>
@@ -12685,7 +12690,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>1633</v>
       </c>
@@ -12717,7 +12722,7 @@
         <v>6.1100000000000002E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>1647</v>
       </c>
@@ -12749,7 +12754,7 @@
         <v>-6.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>1648</v>
       </c>
@@ -12781,7 +12786,7 @@
         <v>-6.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>1651</v>
       </c>
@@ -12813,7 +12818,7 @@
         <v>-6.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>1656</v>
       </c>
@@ -12845,7 +12850,7 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>1657</v>
       </c>
@@ -12877,7 +12882,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>1660</v>
       </c>
@@ -12909,7 +12914,7 @@
         <v>6.4399999999999999E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>1671</v>
       </c>
@@ -12941,7 +12946,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>1672</v>
       </c>
@@ -12973,7 +12978,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>1675</v>
       </c>
@@ -13005,7 +13010,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>1679</v>
       </c>
@@ -13037,7 +13042,7 @@
         <v>0.12770000000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>1680</v>
       </c>
@@ -13069,7 +13074,7 @@
         <v>9.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>1683</v>
       </c>
@@ -13101,7 +13106,7 @@
         <v>6.83E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>1709</v>
       </c>
@@ -13133,7 +13138,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>1710</v>
       </c>
@@ -13165,7 +13170,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>1713</v>
       </c>
@@ -13197,7 +13202,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>1723</v>
       </c>
@@ -13229,7 +13234,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>1724</v>
       </c>
@@ -13261,7 +13266,7 @@
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>1727</v>
       </c>
@@ -13293,7 +13298,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>1759</v>
       </c>
@@ -13325,7 +13330,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>1760</v>
       </c>
@@ -13357,7 +13362,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>1763</v>
       </c>
@@ -13389,7 +13394,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>1774</v>
       </c>
@@ -13421,7 +13426,7 @@
         <v>3.3300000000000003E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>1775</v>
       </c>
@@ -13453,7 +13458,7 @@
         <v>2.06E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>1778</v>
       </c>
@@ -13485,7 +13490,7 @@
         <v>1.54E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>1783</v>
       </c>
@@ -13517,7 +13522,7 @@
         <v>0.1275</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>1784</v>
       </c>
@@ -13549,7 +13554,7 @@
         <v>0.13539999999999999</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>1787</v>
       </c>
@@ -13581,7 +13586,7 @@
         <v>0.12870000000000001</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>1817</v>
       </c>
@@ -13613,7 +13618,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>1818</v>
       </c>
@@ -13645,7 +13650,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>1821</v>
       </c>
@@ -13677,7 +13682,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>1826</v>
       </c>
@@ -13694,7 +13699,7 @@
         <v>-5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>1833</v>
       </c>
@@ -13726,7 +13731,7 @@
         <v>7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>1834</v>
       </c>
@@ -13758,7 +13763,7 @@
         <v>6.2399999999999997E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>1837</v>
       </c>
@@ -13790,7 +13795,7 @@
         <v>2.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>1858</v>
       </c>
@@ -13822,7 +13827,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>1859</v>
       </c>
@@ -13854,7 +13859,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>1862</v>
       </c>
@@ -13886,7 +13891,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>1874</v>
       </c>
@@ -13918,7 +13923,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>1875</v>
       </c>
@@ -13950,7 +13955,7 @@
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>1878</v>
       </c>
@@ -13982,7 +13987,7 @@
         <v>2.18E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>1886</v>
       </c>
@@ -14014,7 +14019,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>1887</v>
       </c>
@@ -14046,7 +14051,7 @@
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>1890</v>
       </c>
@@ -14078,7 +14083,7 @@
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>1895</v>
       </c>
@@ -14110,7 +14115,7 @@
         <v>0.1115</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>1896</v>
       </c>
@@ -14142,7 +14147,7 @@
         <v>0.14549999999999999</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>1899</v>
       </c>
@@ -14174,7 +14179,7 @@
         <v>0.16339999999999999</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>1904</v>
       </c>
@@ -14206,7 +14211,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>1905</v>
       </c>
@@ -14238,7 +14243,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>1908</v>
       </c>
@@ -14270,7 +14275,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>1922</v>
       </c>
@@ -14302,7 +14307,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>1923</v>
       </c>
@@ -14334,7 +14339,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>1926</v>
       </c>
@@ -14366,7 +14371,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>1931</v>
       </c>
@@ -14398,7 +14403,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>1932</v>
       </c>
@@ -14430,7 +14435,7 @@
         <v>4.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>1935</v>
       </c>
@@ -14462,7 +14467,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>1949</v>
       </c>
@@ -14494,7 +14499,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>1950</v>
       </c>
@@ -14526,7 +14531,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>1953</v>
       </c>
@@ -14558,7 +14563,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>1958</v>
       </c>
@@ -14590,7 +14595,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>1959</v>
       </c>
@@ -14622,7 +14627,7 @@
         <v>3.6900000000000002E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>1962</v>
       </c>
@@ -14654,7 +14659,7 @@
         <v>3.7699999999999997E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>1974</v>
       </c>
@@ -14686,7 +14691,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>1975</v>
       </c>
@@ -14718,7 +14723,7 @@
         <v>1.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>1978</v>
       </c>
@@ -14750,7 +14755,7 @@
         <v>1.12E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>1983</v>
       </c>
@@ -14782,7 +14787,7 @@
         <v>9.0399999999999994E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>1984</v>
       </c>
@@ -14814,7 +14819,7 @@
         <v>8.0299999999999996E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>1987</v>
       </c>
@@ -14846,7 +14851,7 @@
         <v>7.51E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>1992</v>
       </c>
@@ -14875,7 +14880,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>1993</v>
       </c>
@@ -14904,7 +14909,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>1996</v>
       </c>
@@ -14921,7 +14926,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>2001</v>
       </c>
@@ -14953,7 +14958,7 @@
         <v>1.15E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>2002</v>
       </c>
@@ -14985,7 +14990,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>2005</v>
       </c>
@@ -15017,7 +15022,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>2017</v>
       </c>
@@ -15049,7 +15054,7 @@
         <v>3.8899999999999997E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>2018</v>
       </c>
@@ -15081,7 +15086,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>2021</v>
       </c>
@@ -15113,7 +15118,7 @@
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>2033</v>
       </c>
@@ -15145,7 +15150,7 @@
         <v>7.7100000000000002E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>2034</v>
       </c>
@@ -15177,7 +15182,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>2037</v>
       </c>
@@ -15209,7 +15214,7 @@
         <v>5.5899999999999998E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>2058</v>
       </c>
@@ -15241,7 +15246,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>2059</v>
       </c>
@@ -15273,7 +15278,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>2062</v>
       </c>
@@ -15305,7 +15310,7 @@
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>2074</v>
       </c>
@@ -15337,7 +15342,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>2075</v>
       </c>
@@ -15369,7 +15374,7 @@
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>2078</v>
       </c>
@@ -15401,7 +15406,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>2083</v>
       </c>
@@ -15433,7 +15438,7 @@
         <v>4.53E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>2084</v>
       </c>
@@ -15465,7 +15470,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>2087</v>
       </c>
@@ -15497,7 +15502,7 @@
         <v>1.09E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>2092</v>
       </c>
@@ -15529,7 +15534,7 @@
         <v>0.1178</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>2093</v>
       </c>
@@ -15561,7 +15566,7 @@
         <v>0.13089999999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>2096</v>
       </c>
@@ -15593,7 +15598,7 @@
         <v>0.14050000000000001</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>2101</v>
       </c>
@@ -15625,7 +15630,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>2102</v>
       </c>
@@ -15657,7 +15662,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>2105</v>
       </c>
@@ -15689,7 +15694,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>2110</v>
       </c>
@@ -15721,7 +15726,7 @@
         <v>-2.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>2111</v>
       </c>
@@ -15753,7 +15758,7 @@
         <v>-8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>2114</v>
       </c>
@@ -15785,7 +15790,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>2119</v>
       </c>
@@ -15814,7 +15819,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>2120</v>
       </c>
@@ -15843,7 +15848,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>2123</v>
       </c>
@@ -15872,7 +15877,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>2128</v>
       </c>
@@ -15904,7 +15909,7 @@
         <v>2.0899999999999998E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>2129</v>
       </c>
@@ -15936,7 +15941,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>2132</v>
       </c>
@@ -15968,7 +15973,7 @@
         <v>1.9900000000000001E-2</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>2146</v>
       </c>
@@ -16000,7 +16005,7 @@
         <v>-1.06E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>2147</v>
       </c>
@@ -16032,7 +16037,7 @@
         <v>-3.2199999999999999E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>2150</v>
       </c>
@@ -16064,7 +16069,7 @@
         <v>-1.55E-2</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>2155</v>
       </c>
@@ -16096,7 +16101,7 @@
         <v>3.3399999999999999E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>2156</v>
       </c>
@@ -16128,7 +16133,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>2159</v>
       </c>
@@ -16160,7 +16165,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>2164</v>
       </c>
@@ -16192,7 +16197,7 @@
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>2165</v>
       </c>
@@ -16224,7 +16229,7 @@
         <v>2.6200000000000001E-2</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>2168</v>
       </c>
@@ -16256,7 +16261,7 @@
         <v>2.12E-2</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>2173</v>
       </c>
@@ -16288,7 +16293,7 @@
         <v>0.2626</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>2174</v>
       </c>
@@ -16320,7 +16325,7 @@
         <v>0.2366</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>2177</v>
       </c>
@@ -16352,7 +16357,7 @@
         <v>0.19089999999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>2200</v>
       </c>
@@ -16384,7 +16389,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>2201</v>
       </c>
@@ -16416,7 +16421,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>2204</v>
       </c>
@@ -16448,7 +16453,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>2209</v>
       </c>
@@ -16480,7 +16485,7 @@
         <v>8.0500000000000002E-2</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>2210</v>
       </c>
@@ -16512,7 +16517,7 @@
         <v>7.1800000000000003E-2</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>2213</v>
       </c>
@@ -16544,7 +16549,7 @@
         <v>6.0100000000000001E-2</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>2227</v>
       </c>
@@ -16576,7 +16581,7 @@
         <v>1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>2228</v>
       </c>
@@ -16608,7 +16613,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>2231</v>
       </c>
@@ -16640,7 +16645,7 @@
         <v>1.61E-2</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>2236</v>
       </c>
@@ -16672,7 +16677,7 @@
         <v>6.1400000000000003E-2</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>2237</v>
       </c>
@@ -16704,7 +16709,7 @@
         <v>5.33E-2</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>2240</v>
       </c>
@@ -16736,7 +16741,7 @@
         <v>4.3499999999999997E-2</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>2252</v>
       </c>
@@ -16768,7 +16773,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>2253</v>
       </c>
@@ -16800,7 +16805,7 @@
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>2256</v>
       </c>
@@ -16832,7 +16837,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>2260</v>
       </c>
@@ -16864,7 +16869,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>2261</v>
       </c>
@@ -16896,7 +16901,7 @@
         <v>0.1474</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>2264</v>
       </c>
@@ -16928,7 +16933,7 @@
         <v>0.1585</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>2276</v>
       </c>
@@ -16960,7 +16965,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>2277</v>
       </c>
@@ -16992,7 +16997,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>2280</v>
       </c>
@@ -17024,7 +17029,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>2291</v>
       </c>
@@ -17056,7 +17061,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>2292</v>
       </c>
@@ -17088,7 +17093,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>2295</v>
       </c>
@@ -17120,7 +17125,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>2306</v>
       </c>
@@ -17152,7 +17157,7 @@
         <v>4.36E-2</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>2307</v>
       </c>
@@ -17184,7 +17189,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>2310</v>
       </c>
@@ -17216,7 +17221,7 @@
         <v>3.4799999999999998E-2</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>2329</v>
       </c>
@@ -17248,7 +17253,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>2330</v>
       </c>
@@ -17280,7 +17285,7 @@
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>2333</v>
       </c>
@@ -17312,7 +17317,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>2344</v>
       </c>
@@ -17344,7 +17349,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>2345</v>
       </c>
@@ -17376,7 +17381,7 @@
         <v>2.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>2348</v>
       </c>
@@ -17408,7 +17413,7 @@
         <v>3.0099999999999998E-2</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>2352</v>
       </c>
@@ -17440,7 +17445,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>2353</v>
       </c>
@@ -17472,7 +17477,7 @@
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>2356</v>
       </c>
@@ -17504,7 +17509,7 @@
         <v>1.9900000000000001E-2</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>2361</v>
       </c>
@@ -17536,7 +17541,7 @@
         <v>0.15870000000000001</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>2362</v>
       </c>
@@ -17568,7 +17573,7 @@
         <v>0.1787</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>2365</v>
       </c>
@@ -17600,7 +17605,7 @@
         <v>0.16839999999999999</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>2379</v>
       </c>
@@ -17632,7 +17637,7 @@
         <v>1.6299999999999999E-2</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>2380</v>
       </c>
@@ -17664,7 +17669,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>2383</v>
       </c>
@@ -17696,7 +17701,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>2388</v>
       </c>
@@ -17728,7 +17733,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>2389</v>
       </c>
@@ -17760,7 +17765,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>2392</v>
       </c>
@@ -17792,7 +17797,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>2397</v>
       </c>
@@ -17824,7 +17829,7 @@
         <v>7.5800000000000006E-2</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>2398</v>
       </c>
@@ -17856,7 +17861,7 @@
         <v>6.9400000000000003E-2</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>2401</v>
       </c>
@@ -17888,7 +17893,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>2406</v>
       </c>
@@ -17920,7 +17925,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>2407</v>
       </c>
@@ -17952,7 +17957,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>2410</v>
       </c>
@@ -17984,7 +17989,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>2415</v>
       </c>
@@ -18016,7 +18021,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>2416</v>
       </c>
@@ -18048,7 +18053,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>2419</v>
       </c>
@@ -18080,7 +18085,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>2424</v>
       </c>
@@ -18112,7 +18117,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>2425</v>
       </c>
@@ -18144,7 +18149,7 @@
         <v>4.6600000000000003E-2</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>2428</v>
       </c>
@@ -18176,7 +18181,7 @@
         <v>4.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>2440</v>
       </c>
@@ -18208,7 +18213,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>2441</v>
       </c>
@@ -18240,7 +18245,7 @@
         <v>2.06E-2</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>2444</v>
       </c>
@@ -18272,7 +18277,7 @@
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>2449</v>
       </c>
@@ -18304,7 +18309,7 @@
         <v>7.7399999999999997E-2</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>2450</v>
       </c>
@@ -18336,7 +18341,7 @@
         <v>8.5800000000000001E-2</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>2453</v>
       </c>
@@ -18368,7 +18373,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>2467</v>
       </c>
@@ -18400,7 +18405,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>2468</v>
       </c>
@@ -18432,7 +18437,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>2471</v>
       </c>
@@ -18464,7 +18469,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>2483</v>
       </c>
@@ -18490,7 +18495,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>2484</v>
       </c>
@@ -18516,7 +18521,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>2487</v>
       </c>
@@ -18542,7 +18547,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>2499</v>
       </c>
@@ -18574,7 +18579,7 @@
         <v>2.64E-2</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>2500</v>
       </c>
@@ -18606,7 +18611,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>2503</v>
       </c>
@@ -18638,7 +18643,7 @@
         <v>2.6700000000000002E-2</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>2540</v>
       </c>
@@ -18670,7 +18675,7 @@
         <v>2.58E-2</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>2541</v>
       </c>
@@ -18702,7 +18707,7 @@
         <v>2.4299999999999999E-2</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>2544</v>
       </c>
@@ -18734,7 +18739,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>2549</v>
       </c>
@@ -18766,7 +18771,7 @@
         <v>4.19E-2</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>2550</v>
       </c>
@@ -18798,7 +18803,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>2553</v>
       </c>
@@ -18830,7 +18835,7 @@
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>2558</v>
       </c>
@@ -18862,7 +18867,7 @@
         <v>0.1043</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>2559</v>
       </c>
@@ -18894,7 +18899,7 @@
         <v>8.6699999999999999E-2</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>2562</v>
       </c>
@@ -18926,7 +18931,7 @@
         <v>8.6699999999999999E-2</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>2585</v>
       </c>
@@ -18958,7 +18963,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>2586</v>
       </c>
@@ -18990,7 +18995,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>2589</v>
       </c>
@@ -19022,7 +19027,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>2594</v>
       </c>
@@ -19054,7 +19059,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>2595</v>
       </c>
@@ -19086,7 +19091,7 @@
         <v>2.7199999999999998E-2</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>2598</v>
       </c>
@@ -19118,7 +19123,7 @@
         <v>2.47E-2</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>2612</v>
       </c>
@@ -19150,7 +19155,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>2613</v>
       </c>
@@ -19182,7 +19187,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>2616</v>
       </c>
@@ -19214,7 +19219,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>2621</v>
       </c>
@@ -19246,7 +19251,7 @@
         <v>3.6700000000000003E-2</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>2622</v>
       </c>
@@ -19278,7 +19283,7 @@
         <v>2.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>2625</v>
       </c>
@@ -19310,7 +19315,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>45</v>
       </c>
@@ -19342,7 +19347,7 @@
         <v>6.6100000000000006E-2</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>46</v>
       </c>
@@ -19374,7 +19379,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>47</v>
       </c>
@@ -19400,7 +19405,7 @@
         <v>-3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>48</v>
       </c>
@@ -19426,7 +19431,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>49</v>
       </c>
@@ -19452,7 +19457,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>50</v>
       </c>
@@ -19478,7 +19483,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>51</v>
       </c>
@@ -19501,7 +19506,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>52</v>
       </c>
@@ -19527,7 +19532,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>53</v>
       </c>
@@ -19553,7 +19558,7 @@
         <v>3.4599999999999999E-2</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>99</v>
       </c>
@@ -19585,7 +19590,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>100</v>
       </c>
@@ -19617,7 +19622,7 @@
         <v>0.15379999999999999</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>101</v>
       </c>
@@ -19643,7 +19648,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>102</v>
       </c>
@@ -19669,7 +19674,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>103</v>
       </c>
@@ -19695,7 +19700,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>104</v>
       </c>
@@ -19721,7 +19726,7 @@
         <v>5.4600000000000003E-2</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>105</v>
       </c>
@@ -19744,7 +19749,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>106</v>
       </c>
@@ -19770,7 +19775,7 @@
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>107</v>
       </c>
@@ -20075,7 +20080,7 @@
         <v>3.1600000000000003E-2</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>238</v>
       </c>
@@ -20107,7 +20112,7 @@
         <v>3.85E-2</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>239</v>
       </c>
@@ -20139,7 +20144,7 @@
         <v>5.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>245</v>
       </c>
@@ -20171,7 +20176,7 @@
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>250</v>
       </c>
@@ -20203,7 +20208,7 @@
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>301</v>
       </c>
@@ -20220,7 +20225,7 @@
         <v>-2.35E-2</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>302</v>
       </c>
@@ -20252,7 +20257,7 @@
         <v>3.27E-2</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>303</v>
       </c>
@@ -20284,7 +20289,7 @@
         <v>0.1234</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>304</v>
       </c>
@@ -20304,7 +20309,7 @@
         <v>-2.35E-2</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>307</v>
       </c>
@@ -20336,7 +20341,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>309</v>
       </c>
@@ -20368,7 +20373,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>312</v>
       </c>
@@ -20400,7 +20405,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>314</v>
       </c>
@@ -20432,7 +20437,7 @@
         <v>4.6300000000000001E-2</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>363</v>
       </c>
@@ -20464,7 +20469,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>364</v>
       </c>
@@ -20496,7 +20501,7 @@
         <v>0.24340000000000001</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>368</v>
       </c>
@@ -20528,7 +20533,7 @@
         <v>6.8199999999999997E-2</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>369</v>
       </c>
@@ -20545,7 +20550,7 @@
         <v>-2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>370</v>
       </c>
@@ -20577,7 +20582,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>373</v>
       </c>
@@ -20609,7 +20614,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>375</v>
       </c>
@@ -20641,7 +20646,7 @@
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>422</v>
       </c>
@@ -20673,7 +20678,7 @@
         <v>8.5300000000000001E-2</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>423</v>
       </c>
@@ -20705,7 +20710,7 @@
         <v>0.13450000000000001</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>424</v>
       </c>
@@ -20731,7 +20736,7 @@
         <v>1.55E-2</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>425</v>
       </c>
@@ -20757,7 +20762,7 @@
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>427</v>
       </c>
@@ -20783,7 +20788,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>429</v>
       </c>
@@ -20809,7 +20814,7 @@
         <v>0.12230000000000001</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>432</v>
       </c>
@@ -20835,7 +20840,7 @@
         <v>2.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>434</v>
       </c>
@@ -20861,7 +20866,7 @@
         <v>5.4600000000000003E-2</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>506</v>
       </c>
@@ -20893,7 +20898,7 @@
         <v>4.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>507</v>
       </c>
@@ -20925,7 +20930,7 @@
         <v>0.12379999999999999</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>511</v>
       </c>
@@ -20957,7 +20962,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>513</v>
       </c>
@@ -20989,7 +20994,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>516</v>
       </c>
@@ -21021,7 +21026,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>518</v>
       </c>
@@ -21053,7 +21058,7 @@
         <v>3.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>569</v>
       </c>
@@ -21070,7 +21075,7 @@
         <v>8.6800000000000002E-2</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>570</v>
       </c>
@@ -21102,7 +21107,7 @@
         <v>9.7799999999999998E-2</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>571</v>
       </c>
@@ -21134,7 +21139,7 @@
         <v>0.21990000000000001</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>572</v>
       </c>
@@ -21166,7 +21171,7 @@
         <v>-7.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>573</v>
       </c>
@@ -21198,7 +21203,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>575</v>
       </c>
@@ -21215,7 +21220,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>577</v>
       </c>
@@ -21247,7 +21252,7 @@
         <v>-3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>580</v>
       </c>
@@ -21279,7 +21284,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>582</v>
       </c>
@@ -21311,7 +21316,7 @@
         <v>3.09E-2</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>633</v>
       </c>
@@ -21328,7 +21333,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>634</v>
       </c>
@@ -21360,7 +21365,7 @@
         <v>2.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>635</v>
       </c>
@@ -21392,7 +21397,7 @@
         <v>0.33479999999999999</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>636</v>
       </c>
@@ -21424,7 +21429,7 @@
         <v>-0.13100000000000001</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>639</v>
       </c>
@@ -21450,7 +21455,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>641</v>
       </c>
@@ -21482,7 +21487,7 @@
         <v>-9.7100000000000006E-2</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>644</v>
       </c>
@@ -21514,7 +21519,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>646</v>
       </c>
@@ -21546,7 +21551,7 @@
         <v>1.47E-2</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>692</v>
       </c>
@@ -21572,7 +21577,7 @@
         <v>8.0600000000000005E-2</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>693</v>
       </c>
@@ -21598,7 +21603,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>694</v>
       </c>
@@ -21624,7 +21629,7 @@
         <v>2.0899999999999998E-2</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>695</v>
       </c>
@@ -21650,7 +21655,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>696</v>
       </c>
@@ -21676,7 +21681,7 @@
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>697</v>
       </c>
@@ -21702,7 +21707,7 @@
         <v>6.6500000000000004E-2</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>699</v>
       </c>
@@ -21728,7 +21733,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>700</v>
       </c>
@@ -21754,7 +21759,7 @@
         <v>2.4299999999999999E-2</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>747</v>
       </c>
@@ -21786,7 +21791,7 @@
         <v>5.79E-2</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>748</v>
       </c>
@@ -21818,7 +21823,7 @@
         <v>0.1011</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>750</v>
       </c>
@@ -21850,7 +21855,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>752</v>
       </c>
@@ -21882,7 +21887,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>754</v>
       </c>
@@ -21914,7 +21919,7 @@
         <v>4.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>759</v>
       </c>
@@ -21946,7 +21951,7 @@
         <v>2.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>806</v>
       </c>
@@ -21978,7 +21983,7 @@
         <v>4.7399999999999998E-2</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>807</v>
       </c>
@@ -22010,7 +22015,7 @@
         <v>6.5799999999999997E-2</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>813</v>
       </c>
@@ -22042,7 +22047,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>816</v>
       </c>
@@ -22074,7 +22079,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>818</v>
       </c>
@@ -22106,7 +22111,7 @@
         <v>1.6299999999999999E-2</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>865</v>
       </c>
@@ -22135,7 +22140,7 @@
         <v>7.2300000000000003E-2</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>866</v>
       </c>
@@ -22164,7 +22169,7 @@
         <v>0.2424</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>867</v>
       </c>
@@ -22190,7 +22195,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>868</v>
       </c>
@@ -22207,7 +22212,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>870</v>
       </c>
@@ -22233,7 +22238,7 @@
         <v>1.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>872</v>
       </c>
@@ -22262,7 +22267,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>873</v>
       </c>
@@ -22285,7 +22290,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>875</v>
       </c>
@@ -22308,7 +22313,7 @@
         <v>3.56E-2</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>877</v>
       </c>
@@ -22337,7 +22342,7 @@
         <v>3.1600000000000003E-2</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>948</v>
       </c>
@@ -22354,7 +22359,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>949</v>
       </c>
@@ -22383,7 +22388,7 @@
         <v>2.63E-2</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>950</v>
       </c>
@@ -22412,7 +22417,7 @@
         <v>0.18340000000000001</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>951</v>
       </c>
@@ -22441,7 +22446,7 @@
         <v>-2.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>952</v>
       </c>
@@ -22470,7 +22475,7 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>954</v>
       </c>
@@ -22499,7 +22504,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>956</v>
       </c>
@@ -22528,7 +22533,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>959</v>
       </c>
@@ -22557,7 +22562,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>961</v>
       </c>
@@ -22586,7 +22591,7 @@
         <v>3.61E-2</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>1007</v>
       </c>
@@ -22618,7 +22623,7 @@
         <v>5.6399999999999999E-2</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>1008</v>
       </c>
@@ -22650,7 +22655,7 @@
         <v>0.15629999999999999</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>1009</v>
       </c>
@@ -22676,7 +22681,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>1012</v>
       </c>
@@ -22708,7 +22713,7 @@
         <v>5.5399999999999998E-2</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>1014</v>
       </c>
@@ -22740,7 +22745,7 @@
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>1015</v>
       </c>
@@ -22772,7 +22777,7 @@
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>1062</v>
       </c>
@@ -22804,7 +22809,7 @@
         <v>5.3900000000000003E-2</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>1063</v>
       </c>
@@ -22836,7 +22841,7 @@
         <v>0.1124</v>
       </c>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>1065</v>
       </c>
@@ -22856,7 +22861,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>1069</v>
       </c>
@@ -22888,7 +22893,7 @@
         <v>3.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>1072</v>
       </c>
@@ -22920,7 +22925,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>1074</v>
       </c>
@@ -22952,7 +22957,7 @@
         <v>3.5299999999999998E-2</v>
       </c>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>1146</v>
       </c>
@@ -22984,7 +22989,7 @@
         <v>7.2300000000000003E-2</v>
       </c>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>1147</v>
       </c>
@@ -23016,7 +23021,7 @@
         <v>8.7099999999999997E-2</v>
       </c>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>1148</v>
       </c>
@@ -23036,7 +23041,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>1151</v>
       </c>
@@ -23062,7 +23067,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>1153</v>
       </c>
@@ -23094,7 +23099,7 @@
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>1156</v>
       </c>
@@ -23126,7 +23131,7 @@
         <v>1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>1158</v>
       </c>
@@ -23158,7 +23163,7 @@
         <v>1.43E-2</v>
       </c>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>1204</v>
       </c>
@@ -23190,7 +23195,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>1205</v>
       </c>
@@ -23222,7 +23227,7 @@
         <v>2.7199999999999998E-2</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>1209</v>
       </c>
@@ -23254,7 +23259,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>1212</v>
       </c>
@@ -23286,7 +23291,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>1284</v>
       </c>
@@ -23318,7 +23323,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>1285</v>
       </c>
@@ -23350,7 +23355,7 @@
         <v>0.11749999999999999</v>
       </c>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>1289</v>
       </c>
@@ -23382,7 +23387,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>1291</v>
       </c>
@@ -23414,7 +23419,7 @@
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>1296</v>
       </c>
@@ -23446,7 +23451,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>1367</v>
       </c>
@@ -23463,7 +23468,7 @@
         <v>3.3300000000000003E-2</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>1368</v>
       </c>
@@ -23495,7 +23500,7 @@
         <v>7.22E-2</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>1369</v>
       </c>
@@ -23527,7 +23532,7 @@
         <v>0.20380000000000001</v>
       </c>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>1370</v>
       </c>
@@ -23544,7 +23549,7 @@
         <v>-3.3300000000000003E-2</v>
       </c>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>1373</v>
       </c>
@@ -23576,7 +23581,7 @@
         <v>-0.22650000000000001</v>
       </c>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>1374</v>
       </c>
@@ -23593,7 +23598,7 @@
         <v>0.2636</v>
       </c>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>1375</v>
       </c>
@@ -23625,7 +23630,7 @@
         <v>-0.2243</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>1378</v>
       </c>
@@ -23657,7 +23662,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>1380</v>
       </c>
@@ -23689,7 +23694,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>1431</v>
       </c>
@@ -23706,7 +23711,7 @@
         <v>-1.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>1432</v>
       </c>
@@ -23738,7 +23743,7 @@
         <v>6.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>1433</v>
       </c>
@@ -23770,7 +23775,7 @@
         <v>0.1124</v>
       </c>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>1434</v>
       </c>
@@ -23802,7 +23807,7 @@
         <v>-9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>1437</v>
       </c>
@@ -23834,7 +23839,7 @@
         <v>1.03E-2</v>
       </c>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>1439</v>
       </c>
@@ -23866,7 +23871,7 @@
         <v>4.7899999999999998E-2</v>
       </c>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>1442</v>
       </c>
@@ -23898,7 +23903,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>1444</v>
       </c>
@@ -23930,7 +23935,7 @@
         <v>3.78E-2</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>1516</v>
       </c>
@@ -23962,7 +23967,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>1517</v>
       </c>
@@ -23994,7 +23999,7 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>1518</v>
       </c>
@@ -24023,7 +24028,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>1519</v>
       </c>
@@ -24055,7 +24060,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>1521</v>
       </c>
@@ -24087,7 +24092,7 @@
         <v>3.49E-2</v>
       </c>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>1523</v>
       </c>
@@ -24119,7 +24124,7 @@
         <v>6.2700000000000006E-2</v>
       </c>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>1526</v>
       </c>
@@ -24151,7 +24156,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>1528</v>
       </c>
@@ -24183,7 +24188,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>1575</v>
       </c>
@@ -24215,7 +24220,7 @@
         <v>6.0199999999999997E-2</v>
       </c>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>1576</v>
       </c>
@@ -24247,7 +24252,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>1577</v>
       </c>
@@ -24279,7 +24284,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>1578</v>
       </c>
@@ -24311,7 +24316,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>1580</v>
       </c>
@@ -24340,7 +24345,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>1582</v>
       </c>
@@ -24372,7 +24377,7 @@
         <v>3.6200000000000003E-2</v>
       </c>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>1585</v>
       </c>
@@ -24404,7 +24409,7 @@
         <v>-1.6899999999999998E-2</v>
       </c>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>1587</v>
       </c>
@@ -24436,7 +24441,7 @@
         <v>3.78E-2</v>
       </c>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>1634</v>
       </c>
@@ -24468,7 +24473,7 @@
         <v>4.58E-2</v>
       </c>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>1635</v>
       </c>
@@ -24500,7 +24505,7 @@
         <v>0.16980000000000001</v>
       </c>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>1639</v>
       </c>
@@ -24532,7 +24537,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>1641</v>
       </c>
@@ -24564,7 +24569,7 @@
         <v>1.9599999999999999E-2</v>
       </c>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>1644</v>
       </c>
@@ -24596,7 +24601,7 @@
         <v>1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>1646</v>
       </c>
@@ -24625,7 +24630,7 @@
         <v>2.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>1718</v>
       </c>
@@ -24657,7 +24662,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>1719</v>
       </c>
@@ -24689,7 +24694,7 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
         <v>1721</v>
       </c>
@@ -24721,7 +24726,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>1723</v>
       </c>
@@ -24753,7 +24758,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>1725</v>
       </c>
@@ -24785,7 +24790,7 @@
         <v>3.85E-2</v>
       </c>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>1728</v>
       </c>
@@ -24817,7 +24822,7 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>1730</v>
       </c>
@@ -24849,7 +24854,7 @@
         <v>2.63E-2</v>
       </c>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>1777</v>
       </c>
@@ -24881,7 +24886,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
         <v>1778</v>
       </c>
@@ -24913,7 +24918,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>1780</v>
       </c>
@@ -24945,7 +24950,7 @@
         <v>1.6299999999999999E-2</v>
       </c>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>1784</v>
       </c>
@@ -24977,7 +24982,7 @@
         <v>5.62E-2</v>
       </c>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>1785</v>
       </c>
@@ -25009,7 +25014,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>1787</v>
       </c>
@@ -25041,7 +25046,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>1789</v>
       </c>
@@ -25073,7 +25078,7 @@
         <v>3.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>1860</v>
       </c>
@@ -25090,7 +25095,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
         <v>1861</v>
       </c>
@@ -25122,7 +25127,7 @@
         <v>5.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>1862</v>
       </c>
@@ -25154,7 +25159,7 @@
         <v>8.0199999999999994E-2</v>
       </c>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
         <v>1863</v>
       </c>
@@ -25171,7 +25176,7 @@
         <v>-5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
         <v>1864</v>
       </c>
@@ -25203,7 +25208,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
         <v>1866</v>
       </c>
@@ -25235,7 +25240,7 @@
         <v>2.24E-2</v>
       </c>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
         <v>1868</v>
       </c>
@@ -25267,7 +25272,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
         <v>1873</v>
       </c>
@@ -25299,7 +25304,7 @@
         <v>3.5099999999999999E-2</v>
       </c>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
         <v>1924</v>
       </c>
@@ -25316,7 +25321,7 @@
         <v>5.8400000000000001E-2</v>
       </c>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
         <v>1925</v>
       </c>
@@ -25348,7 +25353,7 @@
         <v>5.3400000000000003E-2</v>
       </c>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
         <v>1926</v>
       </c>
@@ -25380,7 +25385,7 @@
         <v>0.1075</v>
       </c>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>1927</v>
       </c>
@@ -25397,7 +25402,7 @@
         <v>-5.8400000000000001E-2</v>
       </c>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
         <v>1930</v>
       </c>
@@ -25429,7 +25434,7 @@
         <v>3.3399999999999999E-2</v>
       </c>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>1932</v>
       </c>
@@ -25461,7 +25466,7 @@
         <v>2.3800000000000002E-2</v>
       </c>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>1935</v>
       </c>
@@ -25493,7 +25498,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>1937</v>
       </c>
@@ -25526,12 +25531,28 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J829" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="BE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005608FA096EBB4B4B8A364436FE5AF333" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9202eb2805c8a812e2bbeb48289d8991">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b17ea8e4-3fb0-4555-9c20-069a19b46cb2" xmlns:ns3="a800b4a7-713e-40fb-b259-074d23fe1c46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a40cd243f3064271b83bda810494139" ns2:_="" ns3:_="">
     <xsd:import namespace="b17ea8e4-3fb0-4555-9c20-069a19b46cb2"/>
@@ -25857,15 +25878,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -25911,6 +25923,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93784D20-ACB1-4879-A968-1222273A0798}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7413A120-557C-4DE0-9EC4-7BCC3A7A3BBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25929,14 +25949,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93784D20-ACB1-4879-A968-1222273A0798}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A461AD-FC87-4538-A44F-84957A0A66EB}">
   <ds:schemaRefs>
